--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Reln</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Reln</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H2">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>31.43849511372044</v>
+        <v>21.43384228025378</v>
       </c>
       <c r="R2">
-        <v>282.946456023484</v>
+        <v>192.904580522284</v>
       </c>
       <c r="S2">
-        <v>0.01468288374395752</v>
+        <v>0.01004207293261845</v>
       </c>
       <c r="T2">
-        <v>0.01468288374395752</v>
+        <v>0.01004207293261845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H3">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>34.56550898102623</v>
+        <v>24.83189919302312</v>
       </c>
       <c r="R3">
-        <v>311.0895808292361</v>
+        <v>223.487092737208</v>
       </c>
       <c r="S3">
-        <v>0.01614330928001812</v>
+        <v>0.01163411298316294</v>
       </c>
       <c r="T3">
-        <v>0.01614330928001812</v>
+        <v>0.01163411298316294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H4">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>19.15904686311367</v>
+        <v>18.84846777814045</v>
       </c>
       <c r="R4">
-        <v>172.431421768023</v>
+        <v>169.636210003264</v>
       </c>
       <c r="S4">
-        <v>0.008947949216989146</v>
+        <v>0.008830786642046432</v>
       </c>
       <c r="T4">
-        <v>0.008947949216989146</v>
+        <v>0.008830786642046432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H5">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>13.94301438638778</v>
+        <v>9.674024650251333</v>
       </c>
       <c r="R5">
-        <v>125.48712947749</v>
+        <v>87.06622185226199</v>
       </c>
       <c r="S5">
-        <v>0.006511878464128935</v>
+        <v>0.004532423996572503</v>
       </c>
       <c r="T5">
-        <v>0.006511878464128935</v>
+        <v>0.004532423996572503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.089199</v>
       </c>
       <c r="I6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>158.0938956057053</v>
+        <v>150.0328649078407</v>
       </c>
       <c r="R6">
-        <v>1422.845060451348</v>
+        <v>1350.295784170566</v>
       </c>
       <c r="S6">
-        <v>0.07383541360396964</v>
+        <v>0.07029262191978712</v>
       </c>
       <c r="T6">
-        <v>0.07383541360396964</v>
+        <v>0.07029262191978711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.089199</v>
       </c>
       <c r="I7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>173.8186242260547</v>
@@ -883,10 +883,10 @@
         <v>1564.367618034492</v>
       </c>
       <c r="S7">
-        <v>0.08117941532551223</v>
+        <v>0.08143660285927858</v>
       </c>
       <c r="T7">
-        <v>0.08117941532551222</v>
+        <v>0.08143660285927855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>3.089199</v>
       </c>
       <c r="I8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>96.34457195630901</v>
+        <v>131.9357296233707</v>
       </c>
       <c r="R8">
-        <v>867.101147606781</v>
+        <v>1187.421566610336</v>
       </c>
       <c r="S8">
-        <v>0.04499630609794886</v>
+        <v>0.06181384569189941</v>
       </c>
       <c r="T8">
-        <v>0.04499630609794886</v>
+        <v>0.0618138456918994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>3.089199</v>
       </c>
       <c r="I9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>70.11485291700335</v>
+        <v>67.71635316190699</v>
       </c>
       <c r="R9">
-        <v>631.0336762530301</v>
+        <v>609.4471784571629</v>
       </c>
       <c r="S9">
-        <v>0.03274610411157211</v>
+        <v>0.03172611556488351</v>
       </c>
       <c r="T9">
-        <v>0.03274610411157211</v>
+        <v>0.03172611556488351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H10">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I10">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J10">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>489.0410965457778</v>
+        <v>440.2402395048009</v>
       </c>
       <c r="R10">
-        <v>4401.369868912</v>
+        <v>3962.162155543209</v>
       </c>
       <c r="S10">
-        <v>0.2283994046351608</v>
+        <v>0.2062590801581787</v>
       </c>
       <c r="T10">
-        <v>0.2283994046351607</v>
+        <v>0.2062590801581787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H11">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I11">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J11">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>537.683319560889</v>
+        <v>510.0346034628996</v>
       </c>
       <c r="R11">
-        <v>4839.149876048001</v>
+        <v>4590.311431166097</v>
       </c>
       <c r="S11">
-        <v>0.2511170348205458</v>
+        <v>0.2389587745941426</v>
       </c>
       <c r="T11">
-        <v>0.2511170348205456</v>
+        <v>0.2389587745941426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H12">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I12">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J12">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>298.0283010626667</v>
+        <v>387.1379597017743</v>
       </c>
       <c r="R12">
-        <v>2682.254709564</v>
+        <v>3484.241637315968</v>
       </c>
       <c r="S12">
-        <v>0.139189706157486</v>
+        <v>0.1813798746616646</v>
       </c>
       <c r="T12">
-        <v>0.1391897061574859</v>
+        <v>0.1813798746616646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H13">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I13">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J13">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>216.8903765911112</v>
+        <v>198.6995552787826</v>
       </c>
       <c r="R13">
-        <v>1952.01338932</v>
+        <v>1788.295997509044</v>
       </c>
       <c r="S13">
-        <v>0.1012954396560996</v>
+        <v>0.0930936879957652</v>
       </c>
       <c r="T13">
-        <v>0.1012954396560996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.012677</v>
-      </c>
-      <c r="I14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>153.5290173333333</v>
-      </c>
-      <c r="N14">
-        <v>460.587052</v>
-      </c>
-      <c r="O14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="P14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="Q14">
-        <v>0.6487624509115555</v>
-      </c>
-      <c r="R14">
-        <v>5.838862058204</v>
-      </c>
-      <c r="S14">
-        <v>0.0003029948987609808</v>
-      </c>
-      <c r="T14">
-        <v>0.0003029948987609808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.012677</v>
-      </c>
-      <c r="I15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>168.7997026666667</v>
-      </c>
-      <c r="N15">
-        <v>506.3991080000001</v>
-      </c>
-      <c r="O15">
-        <v>0.3487728915577651</v>
-      </c>
-      <c r="P15">
-        <v>0.348772891557765</v>
-      </c>
-      <c r="Q15">
-        <v>0.7132912769017778</v>
-      </c>
-      <c r="R15">
-        <v>6.419621492116001</v>
-      </c>
-      <c r="S15">
-        <v>0.0003331321316889973</v>
-      </c>
-      <c r="T15">
-        <v>0.0003331321316889972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.012677</v>
-      </c>
-      <c r="I16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>93.562673</v>
-      </c>
-      <c r="N16">
-        <v>280.688019</v>
-      </c>
-      <c r="O16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="P16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="Q16">
-        <v>0.3953646685403334</v>
-      </c>
-      <c r="R16">
-        <v>3.558282016863</v>
-      </c>
-      <c r="S16">
-        <v>0.0001846492156716669</v>
-      </c>
-      <c r="T16">
-        <v>0.0001846492156716669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.012677</v>
-      </c>
-      <c r="I17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N17">
-        <v>204.27097</v>
-      </c>
-      <c r="O17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q17">
-        <v>0.2877270096322223</v>
-      </c>
-      <c r="R17">
-        <v>2.58954308669</v>
-      </c>
-      <c r="S17">
-        <v>0.0001343786404897838</v>
-      </c>
-      <c r="T17">
-        <v>0.0001343786404897838</v>
+        <v>0.0930936879957652</v>
       </c>
     </row>
   </sheetData>
